--- a/biology/Botanique/Cannabis_en_Andorre/Cannabis_en_Andorre.xlsx
+++ b/biology/Botanique/Cannabis_en_Andorre/Cannabis_en_Andorre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La légalité du cannabis en Andorre est régie par la Llei 9/2005.
 </t>
@@ -511,10 +523,12 @@
           <t>Trafic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Si es tracta de cannabis o droga de toxicitat similar, la pena ha de ser de presó fins a dos anys i multa fins al doble del valor de la droga[1] »
+« Si es tracta de cannabis o droga de toxicitat similar, la pena ha de ser de presó fins a dos anys i multa fins al doble del valor de la droga »
 Le trafic de cannabis peut être puni de deux ans de prison et des amendes doublent totalement la valeur de la drogue.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Usage personnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« El consum individual de cannabis o una droga de toxicitat similar en un local públic ha de ser castigat amb pena d’arrest o multa fins a 600 euros. Als efectes del present apartat, s’assimilen a local públic els llocs públics amb concurrència de persones[1]. »
+« El consum individual de cannabis o una droga de toxicitat similar en un local públic ha de ser castigat amb pena d’arrest o multa fins a 600 euros. Als efectes del present apartat, s’assimilen a local públic els llocs públics amb concurrència de persones. »
 La consommation individuelle de cannabis ou similaire dans un espace public peut être punie d'une arrestation ou d'une amende pouvant aller jusqu'à 600 euros.
 </t>
         </is>
